--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Eile</t>
   </si>
@@ -25,7 +25,22 @@
     <t>Kiekis</t>
   </si>
   <si>
+    <t>DATE</t>
+  </si>
+  <si>
     <t>Viso</t>
+  </si>
+  <si>
+    <t>2021/10/24</t>
+  </si>
+  <si>
+    <t>2024 - 12 - 10</t>
+  </si>
+  <si>
+    <t>2021\10\24</t>
+  </si>
+  <si>
+    <t>2021 - 10 - 24</t>
   </si>
   <si>
     <t>Iš viso</t>
@@ -360,13 +375,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,8 +394,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -390,12 +408,15 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
         <f>B2*C2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -405,12 +426,15 @@
       <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
         <f>B3*C3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -420,12 +444,15 @@
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
         <f>B4*C4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -435,12 +462,15 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
         <f>B5*C5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -450,14 +480,17 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
         <f>B6*C6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <f>SUM(B2:B6)</f>
@@ -467,8 +500,11 @@
         <f>SUM(C2:C6)</f>
         <v>0</v>
       </c>
-      <c r="D7">
-        <f>SUM(D2:D6)</f>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f>SUM(E2:E6)</f>
         <v>0</v>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9.99</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>5</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -88,6 +88,5226 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50100001"/>
+        <c:axId val="50100002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50100001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50100002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50100002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50100001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50110001"/>
+        <c:axId val="50110002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50110001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50110002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50110002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50110001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50120001"/>
+        <c:axId val="50120002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50120001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50120002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50120002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50120001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50130001"/>
+        <c:axId val="50130002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50130001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50130002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50130002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50130001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50140001"/>
+        <c:axId val="50140002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50140001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50140002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50140002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50140001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50150001"/>
+        <c:axId val="50150002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50150001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50150002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50150002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50150001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50160001"/>
+        <c:axId val="50160002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50160001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50160002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50160002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50160001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50170001"/>
+        <c:axId val="50170002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50170001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50170002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50170002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50170001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50180001"/>
+        <c:axId val="50180002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50180001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50180002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50180002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50180001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50190001"/>
+        <c:axId val="50190002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50190001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50190002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50190002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50190001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50200001"/>
+        <c:axId val="50200002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50200001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50200002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50200002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50200001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50210001"/>
+        <c:axId val="50210002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50210001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50210002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50210002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50210001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50220001"/>
+        <c:axId val="50220002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50220001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50220002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50220002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50220001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50230001"/>
+        <c:axId val="50230002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50230001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50230002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50230002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50230001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50240001"/>
+        <c:axId val="50240002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50240001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50240002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50240002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50240001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50250001"/>
+        <c:axId val="50250002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50250001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50250002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50250002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50250001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50260001"/>
+        <c:axId val="50260002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50260001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50260002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50260002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50260001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50270001"/>
+        <c:axId val="50270002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50270001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50270002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50270002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50270001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50280001"/>
+        <c:axId val="50280002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50280001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50280002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50280002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50280001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50290001"/>
+        <c:axId val="50290002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50290001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50290002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50290002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50290001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50030001"/>
+        <c:axId val="50030002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50030001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50030002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50300001"/>
+        <c:axId val="50300002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50300001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50300002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50300002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50300001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50310001"/>
+        <c:axId val="50310002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50310001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50310002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50310002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50310001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50320001"/>
+        <c:axId val="50320002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50320001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50320002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50320002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50320001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50330001"/>
+        <c:axId val="50330002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50330001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50330002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50330002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50330001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50340001"/>
+        <c:axId val="50340002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50340001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50340002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50340002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50340001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50350001"/>
+        <c:axId val="50350002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50350001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50350002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50350002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50350001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50040001"/>
+        <c:axId val="50040002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50040001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50040002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50040002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50040001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50050001"/>
+        <c:axId val="50050002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50050001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50050002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50060001"/>
+        <c:axId val="50060002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50060001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50060002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50070001"/>
+        <c:axId val="50070002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50070001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50070002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50080001"/>
+        <c:axId val="50080002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50080001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50080002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50090001"/>
+        <c:axId val="50090002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50090001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50090002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50090002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50090001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Chart 21"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Chart 22"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Chart 23"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Chart 24"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="Chart 25"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="27" name="Chart 26"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="28" name="Chart 27"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="29" name="Chart 28"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="30" name="Chart 29"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="31" name="Chart 30"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="32" name="Chart 31"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="33" name="Chart 32"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="34" name="Chart 33"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="35" name="Chart 34"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="36" name="Chart 35"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -510,5 +5730,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -224,6 +224,4562 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50100001"/>
+        <c:axId val="50100002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50100001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50100002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50100002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50100001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50110001"/>
+        <c:axId val="50110002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50110001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50110002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50110002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50110001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50120001"/>
+        <c:axId val="50120002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50120001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50120002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50120002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50120001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50130001"/>
+        <c:axId val="50130002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50130001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50130002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50130002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50130001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50140001"/>
+        <c:axId val="50140002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50140001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50140002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50140002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50140001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50150001"/>
+        <c:axId val="50150002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50150001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50150002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50150002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50150001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50160001"/>
+        <c:axId val="50160002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50160001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50160002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50160002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50160001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50170001"/>
+        <c:axId val="50170002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50170001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50170002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50170002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50170001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50180001"/>
+        <c:axId val="50180002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50180001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50180002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50180002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50180001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50190001"/>
+        <c:axId val="50190002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50190001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50190002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50190002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50190001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50200001"/>
+        <c:axId val="50200002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50200001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50200002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50200002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50200001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50210001"/>
+        <c:axId val="50210002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50210001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50210002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50210002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50210001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50220001"/>
+        <c:axId val="50220002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50220001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50220002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50220002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50220001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50230001"/>
+        <c:axId val="50230002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50230001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50230002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50230002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50230001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50240001"/>
+        <c:axId val="50240002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50240001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50240002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50240002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50240001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50250001"/>
+        <c:axId val="50250002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50250001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50250002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50250002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50250001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50260001"/>
+        <c:axId val="50260002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50260001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50260002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50260002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50260001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50270001"/>
+        <c:axId val="50270002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50270001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50270002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50270002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50270001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50280001"/>
+        <c:axId val="50280002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50280001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50280002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50280002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50280001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50290001"/>
+        <c:axId val="50290002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50290001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50290002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50290002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50290001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50030001"/>
+        <c:axId val="50030002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50030001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50030002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50300001"/>
+        <c:axId val="50300002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50300001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50300002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50300002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50300001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50310001"/>
+        <c:axId val="50310002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50310001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50310002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50310002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50310001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50320001"/>
+        <c:axId val="50320002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50320001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50320002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50320002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50320001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50330001"/>
+        <c:axId val="50330002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50330001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50330002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50330002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50330001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50340001"/>
+        <c:axId val="50340002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50340001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50340002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50340002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50340001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50350001"/>
+        <c:axId val="50350002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50350001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50350002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50350002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50350001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50040001"/>
+        <c:axId val="50040002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50040001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50040002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50040002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50040001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50050001"/>
+        <c:axId val="50050002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50050001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50050002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50060001"/>
+        <c:axId val="50060002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50060001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50060002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50070001"/>
+        <c:axId val="50070002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50070001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50070002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50080001"/>
+        <c:axId val="50080002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50080001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50080002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Belekas</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50090001"/>
+        <c:axId val="50090002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50090001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50090002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50090002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50090001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -251,6 +4807,1026 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Chart 21"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Chart 22"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Chart 23"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Chart 24"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="Chart 25"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="27" name="Chart 26"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="28" name="Chart 27"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="29" name="Chart 28"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="30" name="Chart 29"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="31" name="Chart 30"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="32" name="Chart 31"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="33" name="Chart 32"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="34" name="Chart 33"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="35" name="Chart 34"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="36" name="Chart 35"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
